--- a/public/data/lime/lime_table_liberia.xlsx
+++ b/public/data/lime/lime_table_liberia.xlsx
@@ -1420,13 +1420,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>5.99</v>
+        <v>5.46</v>
       </c>
       <c r="E2" t="n">
-        <v>4.75</v>
+        <v>3.63</v>
       </c>
       <c r="F2" t="n">
-        <v>3.32</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.72</v>
+        <v>2.87</v>
       </c>
       <c r="K2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>5.52</v>
+        <v>5.17</v>
       </c>
       <c r="E3" t="n">
-        <v>4.16</v>
+        <v>3.41</v>
       </c>
       <c r="F3" t="n">
-        <v>2.57</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>5.51</v>
+        <v>5.09</v>
       </c>
       <c r="E4" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>0.69</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.55</v>
+        <v>7.01</v>
       </c>
       <c r="K4" t="n">
-        <v>5.36</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8</v>
+        <v>0.92</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>92</v>
       </c>
       <c r="D5" t="n">
-        <v>5.11</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.92</v>
+        <v>2.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2.53</v>
+        <v>0.67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="K5" t="n">
-        <v>1.76</v>
+        <v>0.87</v>
       </c>
       <c r="L5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>5.56</v>
+        <v>4.91</v>
       </c>
       <c r="E6" t="n">
-        <v>4.14</v>
+        <v>2.75</v>
       </c>
       <c r="F6" t="n">
-        <v>2.49</v>
+        <v>0.48</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>4.91</v>
+        <v>4.23</v>
       </c>
       <c r="E7" t="n">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>5.57</v>
+        <v>5.21</v>
       </c>
       <c r="E8" t="n">
-        <v>4.21</v>
+        <v>3.44</v>
       </c>
       <c r="F8" t="n">
-        <v>2.63</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>5.14</v>
+        <v>4.71</v>
       </c>
       <c r="E9" t="n">
-        <v>3.89</v>
+        <v>2.98</v>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>0.99</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>5.8</v>
+        <v>5.34</v>
       </c>
       <c r="E10" t="n">
-        <v>4.71</v>
+        <v>3.73</v>
       </c>
       <c r="F10" t="n">
-        <v>3.43</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>4.47</v>
+        <v>3.87</v>
       </c>
       <c r="E11" t="n">
-        <v>3.39</v>
+        <v>2.1</v>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>0.33</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1890,13 +1890,13 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>4.73</v>
+        <v>4.3</v>
       </c>
       <c r="E12" t="n">
-        <v>3.71</v>
+        <v>2.77</v>
       </c>
       <c r="F12" t="n">
-        <v>2.51</v>
+        <v>1.06</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>5.14</v>
+        <v>4.69</v>
       </c>
       <c r="E13" t="n">
-        <v>3.88</v>
+        <v>2.92</v>
       </c>
       <c r="F13" t="n">
-        <v>2.41</v>
+        <v>0.88</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>102</v>
       </c>
       <c r="D14" t="n">
-        <v>5.04</v>
+        <v>4.65</v>
       </c>
       <c r="E14" t="n">
-        <v>3.66</v>
+        <v>2.81</v>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>0.73</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>5.33</v>
+        <v>4.94</v>
       </c>
       <c r="E15" t="n">
-        <v>4.05</v>
+        <v>3.2</v>
       </c>
       <c r="F15" t="n">
-        <v>2.55</v>
+        <v>1.23</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>4.32</v>
+        <v>3.84</v>
       </c>
       <c r="E16" t="n">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="F16" t="n">
-        <v>1.86</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>5.59</v>
+        <v>5.12</v>
       </c>
       <c r="E17" t="n">
-        <v>4.05</v>
+        <v>3.07</v>
       </c>
       <c r="F17" t="n">
-        <v>2.29</v>
+        <v>0.97</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>107</v>
       </c>
       <c r="D18" t="n">
-        <v>6.77</v>
+        <v>6.3</v>
       </c>
       <c r="E18" t="n">
-        <v>5.31</v>
+        <v>4.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3.61</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>108</v>
       </c>
       <c r="D19" t="n">
-        <v>6.68</v>
+        <v>6.19</v>
       </c>
       <c r="E19" t="n">
-        <v>5.2</v>
+        <v>4.16</v>
       </c>
       <c r="F19" t="n">
-        <v>3.48</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.84</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.12</v>
+        <v>6.71</v>
       </c>
       <c r="E20" t="n">
-        <v>5.62</v>
+        <v>4.77</v>
       </c>
       <c r="F20" t="n">
-        <v>3.88</v>
+        <v>2.61</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2313,13 +2313,13 @@
         <v>110</v>
       </c>
       <c r="D21" t="n">
-        <v>6.73</v>
+        <v>5.88</v>
       </c>
       <c r="E21" t="n">
-        <v>4.84</v>
+        <v>3.08</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>0.66</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="K21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>111</v>
       </c>
       <c r="D22" t="n">
-        <v>5.51</v>
+        <v>5.12</v>
       </c>
       <c r="E22" t="n">
-        <v>4.26</v>
+        <v>3.44</v>
       </c>
       <c r="F22" t="n">
-        <v>2.81</v>
+        <v>1.52</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>7.39</v>
+        <v>6.24</v>
       </c>
       <c r="E23" t="n">
-        <v>5.58</v>
+        <v>3.13</v>
       </c>
       <c r="F23" t="n">
-        <v>3.48</v>
+        <v>0.84</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>114</v>
       </c>
       <c r="D24" t="n">
-        <v>6.31</v>
+        <v>5.76</v>
       </c>
       <c r="E24" t="n">
-        <v>5.19</v>
+        <v>4.02</v>
       </c>
       <c r="F24" t="n">
-        <v>3.89</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>115</v>
       </c>
       <c r="D25" t="n">
-        <v>5.43</v>
+        <v>4.98</v>
       </c>
       <c r="E25" t="n">
-        <v>4.23</v>
+        <v>3.25</v>
       </c>
       <c r="F25" t="n">
-        <v>2.81</v>
+        <v>1.32</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>4.77</v>
+        <v>4.35</v>
       </c>
       <c r="E26" t="n">
-        <v>3.63</v>
+        <v>2.73</v>
       </c>
       <c r="F26" t="n">
-        <v>2.31</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2595,13 +2595,13 @@
         <v>117</v>
       </c>
       <c r="D27" t="n">
-        <v>5.43</v>
+        <v>4.83</v>
       </c>
       <c r="E27" t="n">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="F27" t="n">
-        <v>3.41</v>
+        <v>1.52</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>119</v>
       </c>
       <c r="D28" t="n">
-        <v>9.57</v>
+        <v>9.16</v>
       </c>
       <c r="E28" t="n">
-        <v>8.06</v>
+        <v>7.18</v>
       </c>
       <c r="F28" t="n">
-        <v>6.31</v>
+        <v>4.87</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>120</v>
       </c>
       <c r="D29" t="n">
-        <v>10.69</v>
+        <v>10.39</v>
       </c>
       <c r="E29" t="n">
-        <v>9.3</v>
+        <v>8.66</v>
       </c>
       <c r="F29" t="n">
-        <v>7.68</v>
+        <v>6.64</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>121</v>
       </c>
       <c r="D30" t="n">
-        <v>11.04</v>
+        <v>10.7</v>
       </c>
       <c r="E30" t="n">
-        <v>9.41</v>
+        <v>8.66</v>
       </c>
       <c r="F30" t="n">
-        <v>7.51</v>
+        <v>6.29</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.35</v>
+        <v>4.89</v>
       </c>
       <c r="K30" t="n">
-        <v>3.57</v>
+        <v>2.58</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>0.16</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="E31" t="n">
-        <v>10.32</v>
+        <v>9.56</v>
       </c>
       <c r="F31" t="n">
-        <v>8.6</v>
+        <v>7.36</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>124</v>
       </c>
       <c r="D32" t="n">
-        <v>9.7</v>
+        <v>9.22</v>
       </c>
       <c r="E32" t="n">
-        <v>8.62</v>
+        <v>7.58</v>
       </c>
       <c r="F32" t="n">
-        <v>7.36</v>
+        <v>5.76</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>125</v>
       </c>
       <c r="D33" t="n">
-        <v>7.67</v>
+        <v>7.14</v>
       </c>
       <c r="E33" t="n">
-        <v>6.56</v>
+        <v>5.43</v>
       </c>
       <c r="F33" t="n">
-        <v>5.26</v>
+        <v>3.61</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2895,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.79</v>
+        <v>5.14</v>
       </c>
       <c r="K33" t="n">
-        <v>4.56</v>
+        <v>3.16</v>
       </c>
       <c r="L33" t="n">
-        <v>3.13</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>126</v>
       </c>
       <c r="D34" t="n">
-        <v>8.68</v>
+        <v>8.13</v>
       </c>
       <c r="E34" t="n">
-        <v>7.53</v>
+        <v>6.39</v>
       </c>
       <c r="F34" t="n">
-        <v>6.21</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.89</v>
+        <v>6.32</v>
       </c>
       <c r="K34" t="n">
-        <v>5.84</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
-        <v>4.61</v>
+        <v>2.59</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2971,13 +2971,13 @@
         <v>128</v>
       </c>
       <c r="D35" t="n">
-        <v>3.66</v>
+        <v>3.25</v>
       </c>
       <c r="E35" t="n">
-        <v>2.72</v>
+        <v>1.83</v>
       </c>
       <c r="F35" t="n">
-        <v>1.63</v>
+        <v>0.38</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3018,13 +3018,13 @@
         <v>129</v>
       </c>
       <c r="D36" t="n">
-        <v>4.29</v>
+        <v>3.85</v>
       </c>
       <c r="E36" t="n">
-        <v>3.42</v>
+        <v>2.46</v>
       </c>
       <c r="F36" t="n">
-        <v>2.39</v>
+        <v>0.89</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3065,13 +3065,13 @@
         <v>124</v>
       </c>
       <c r="D37" t="n">
-        <v>4.22</v>
+        <v>3.64</v>
       </c>
       <c r="E37" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="F37" t="n">
-        <v>1.7</v>
+        <v>0.28</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>130</v>
       </c>
       <c r="D38" t="n">
-        <v>4.33</v>
+        <v>3.89</v>
       </c>
       <c r="E38" t="n">
-        <v>3.47</v>
+        <v>2.54</v>
       </c>
       <c r="F38" t="n">
-        <v>2.47</v>
+        <v>1.05</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>131</v>
       </c>
       <c r="D39" t="n">
-        <v>4.16</v>
+        <v>3.81</v>
       </c>
       <c r="E39" t="n">
-        <v>3.34</v>
+        <v>2.57</v>
       </c>
       <c r="F39" t="n">
-        <v>2.37</v>
+        <v>1.14</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3206,13 +3206,13 @@
         <v>132</v>
       </c>
       <c r="D40" t="n">
-        <v>4.12</v>
+        <v>3.69</v>
       </c>
       <c r="E40" t="n">
-        <v>3.23</v>
+        <v>2.3</v>
       </c>
       <c r="F40" t="n">
-        <v>2.2</v>
+        <v>0.79</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>134</v>
       </c>
       <c r="D41" t="n">
-        <v>5.94</v>
+        <v>5.47</v>
       </c>
       <c r="E41" t="n">
-        <v>3.76</v>
+        <v>2.74</v>
       </c>
       <c r="F41" t="n">
-        <v>1.24</v>
+        <v>0.3</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="K41" t="n">
-        <v>2.12</v>
+        <v>1.16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3300,13 +3300,13 @@
         <v>135</v>
       </c>
       <c r="D42" t="n">
-        <v>7.29</v>
+        <v>6.85</v>
       </c>
       <c r="E42" t="n">
-        <v>5.86</v>
+        <v>4.93</v>
       </c>
       <c r="F42" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>136</v>
       </c>
       <c r="D43" t="n">
-        <v>7.2</v>
+        <v>6.75</v>
       </c>
       <c r="E43" t="n">
-        <v>5.4</v>
+        <v>4.42</v>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>1.76</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3365,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="K43" t="n">
-        <v>2.45</v>
+        <v>1.47</v>
       </c>
       <c r="L43" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>137</v>
       </c>
       <c r="D44" t="n">
-        <v>6.72</v>
+        <v>6.08</v>
       </c>
       <c r="E44" t="n">
-        <v>4.31</v>
+        <v>2.98</v>
       </c>
       <c r="F44" t="n">
-        <v>1.68</v>
+        <v>0.41</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.92</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>1.47</v>
+        <v>0.64</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>139</v>
       </c>
       <c r="D45" t="n">
-        <v>9.84</v>
+        <v>9.46</v>
       </c>
       <c r="E45" t="n">
-        <v>8.47</v>
+        <v>7.65</v>
       </c>
       <c r="F45" t="n">
-        <v>6.87</v>
+        <v>5.54</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3488,16 +3488,16 @@
         <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>9.82</v>
+        <v>9.37</v>
       </c>
       <c r="E46" t="n">
-        <v>8.76</v>
+        <v>7.79</v>
       </c>
       <c r="F46" t="n">
-        <v>7.53</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.22</v>
+        <v>2.9</v>
       </c>
       <c r="K46" t="n">
-        <v>3.13</v>
+        <v>0.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>142</v>
       </c>
       <c r="D47" t="n">
-        <v>5.37</v>
+        <v>5.05</v>
       </c>
       <c r="E47" t="n">
-        <v>2.97</v>
+        <v>2.27</v>
       </c>
       <c r="F47" t="n">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>143</v>
       </c>
       <c r="D48" t="n">
-        <v>8.95</v>
+        <v>7.25</v>
       </c>
       <c r="E48" t="n">
-        <v>5.75</v>
+        <v>2.48</v>
       </c>
       <c r="F48" t="n">
-        <v>2.33</v>
+        <v>0.3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.93</v>
+        <v>4.84</v>
       </c>
       <c r="K48" t="n">
-        <v>2.91</v>
+        <v>0.89</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>144</v>
       </c>
       <c r="D49" t="n">
-        <v>6.12</v>
+        <v>5.76</v>
       </c>
       <c r="E49" t="n">
-        <v>4.34</v>
+        <v>3.56</v>
       </c>
       <c r="F49" t="n">
-        <v>2.49</v>
+        <v>1.48</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.95</v>
+        <v>4.27</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="L49" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>145</v>
       </c>
       <c r="D50" t="n">
-        <v>5.9</v>
+        <v>5.34</v>
       </c>
       <c r="E50" t="n">
-        <v>4.15</v>
+        <v>2.94</v>
       </c>
       <c r="F50" t="n">
-        <v>2.1</v>
+        <v>0.71</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>147</v>
       </c>
       <c r="D51" t="n">
-        <v>4.68</v>
+        <v>3.78</v>
       </c>
       <c r="E51" t="n">
-        <v>3.19</v>
+        <v>1.29</v>
       </c>
       <c r="F51" t="n">
-        <v>1.48</v>
+        <v>0.02</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3770,13 +3770,13 @@
         <v>148</v>
       </c>
       <c r="D52" t="n">
-        <v>5.58</v>
+        <v>4.84</v>
       </c>
       <c r="E52" t="n">
-        <v>4.11</v>
+        <v>2.51</v>
       </c>
       <c r="F52" t="n">
-        <v>2.39</v>
+        <v>0.22</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.89</v>
+        <v>2.35</v>
       </c>
       <c r="K52" t="n">
-        <v>1.6</v>
+        <v>0.43</v>
       </c>
       <c r="L52" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3817,13 +3817,13 @@
         <v>149</v>
       </c>
       <c r="D53" t="n">
-        <v>3.67</v>
+        <v>2.9</v>
       </c>
       <c r="E53" t="n">
-        <v>2.36</v>
+        <v>0.79</v>
       </c>
       <c r="F53" t="n">
-        <v>0.89</v>
+        <v>0.07</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3835,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.11</v>
+        <v>2.55</v>
       </c>
       <c r="K53" t="n">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="L53" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>150</v>
       </c>
       <c r="D54" t="n">
-        <v>6.56</v>
+        <v>5.78</v>
       </c>
       <c r="E54" t="n">
-        <v>4.99</v>
+        <v>3.32</v>
       </c>
       <c r="F54" t="n">
-        <v>3.16</v>
+        <v>0.82</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3911,13 +3911,13 @@
         <v>151</v>
       </c>
       <c r="D55" t="n">
-        <v>6.26</v>
+        <v>5.54</v>
       </c>
       <c r="E55" t="n">
-        <v>4.75</v>
+        <v>3.21</v>
       </c>
       <c r="F55" t="n">
-        <v>2.98</v>
+        <v>0.62</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>152</v>
       </c>
       <c r="D56" t="n">
-        <v>5.28</v>
+        <v>4.46</v>
       </c>
       <c r="E56" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0.07</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.24</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
-        <v>2.62</v>
+        <v>0.81</v>
       </c>
       <c r="L56" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4005,13 +4005,13 @@
         <v>154</v>
       </c>
       <c r="D57" t="n">
-        <v>7.76</v>
+        <v>7.42</v>
       </c>
       <c r="E57" t="n">
-        <v>6.6</v>
+        <v>5.87</v>
       </c>
       <c r="F57" t="n">
-        <v>5.24</v>
+        <v>4.05</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>155</v>
       </c>
       <c r="D58" t="n">
-        <v>10.9</v>
+        <v>10.54</v>
       </c>
       <c r="E58" t="n">
-        <v>9.47</v>
+        <v>8.69</v>
       </c>
       <c r="F58" t="n">
-        <v>7.79</v>
+        <v>6.53</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>157</v>
       </c>
       <c r="D59" t="n">
-        <v>7.59</v>
+        <v>7.15</v>
       </c>
       <c r="E59" t="n">
-        <v>6.09</v>
+        <v>5.13</v>
       </c>
       <c r="F59" t="n">
-        <v>4.34</v>
+        <v>2.82</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>158</v>
       </c>
       <c r="D60" t="n">
-        <v>7.31</v>
+        <v>6.93</v>
       </c>
       <c r="E60" t="n">
-        <v>5.89</v>
+        <v>5.07</v>
       </c>
       <c r="F60" t="n">
-        <v>4.24</v>
+        <v>2.99</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4193,13 +4193,13 @@
         <v>160</v>
       </c>
       <c r="D61" t="n">
-        <v>7.03</v>
+        <v>6.63</v>
       </c>
       <c r="E61" t="n">
-        <v>5.77</v>
+        <v>4.91</v>
       </c>
       <c r="F61" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4240,13 +4240,13 @@
         <v>161</v>
       </c>
       <c r="D62" t="n">
-        <v>6.83</v>
+        <v>5.99</v>
       </c>
       <c r="E62" t="n">
-        <v>5.56</v>
+        <v>3.89</v>
       </c>
       <c r="F62" t="n">
-        <v>4.07</v>
+        <v>2.22</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -4287,13 +4287,13 @@
         <v>162</v>
       </c>
       <c r="D63" t="n">
-        <v>8.17</v>
+        <v>6.62</v>
       </c>
       <c r="E63" t="n">
-        <v>6.27</v>
+        <v>2.93</v>
       </c>
       <c r="F63" t="n">
-        <v>4.05</v>
+        <v>0.55</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>163</v>
       </c>
       <c r="D64" t="n">
-        <v>7.48</v>
+        <v>7.16</v>
       </c>
       <c r="E64" t="n">
-        <v>6.49</v>
+        <v>5.8</v>
       </c>
       <c r="F64" t="n">
-        <v>5.33</v>
+        <v>4.21</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4381,13 +4381,13 @@
         <v>164</v>
       </c>
       <c r="D65" t="n">
-        <v>6.5</v>
+        <v>6.15</v>
       </c>
       <c r="E65" t="n">
-        <v>5.45</v>
+        <v>4.71</v>
       </c>
       <c r="F65" t="n">
-        <v>4.23</v>
+        <v>3.02</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -4428,13 +4428,13 @@
         <v>165</v>
       </c>
       <c r="D66" t="n">
-        <v>7.16</v>
+        <v>6.46</v>
       </c>
       <c r="E66" t="n">
-        <v>5.91</v>
+        <v>4.45</v>
       </c>
       <c r="F66" t="n">
-        <v>4.44</v>
+        <v>2.79</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -4475,13 +4475,13 @@
         <v>166</v>
       </c>
       <c r="D67" t="n">
-        <v>5.96</v>
+        <v>5.68</v>
       </c>
       <c r="E67" t="n">
-        <v>5.05</v>
+        <v>4.45</v>
       </c>
       <c r="F67" t="n">
-        <v>3.99</v>
+        <v>3.02</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
